--- a/AID_DAPIquant.xlsx
+++ b/AID_DAPIquant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hubrecht-my.sharepoint.com/personal/e_schild_hubrecht_eu/Documents/Work/mig-1_paper/data - raw and otherwise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hubrecht-my.sharepoint.com/personal/e_schild_hubrecht_eu/Documents/Work/mig-1_paper/data - raw and otherwise/Code to publish/code_for_sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_42B19FCC8F79A8D366075C52F37BD2724A444F8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6671BA1D-8831-463C-ABF2-F9ACB4E01E45}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_42B19FCC8F79A8D366075C52F37BD2724A444F8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CBD455-77D1-4489-95AC-33EFC1CB055B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>seam</t>
-  </si>
-  <si>
-    <t>QR</t>
   </si>
   <si>
     <t>20181221</t>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +472,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -492,7 +489,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -509,7 +506,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -521,12 +518,12 @@
         <v>2.401908284338937</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -543,7 +540,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -560,7 +557,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -577,7 +574,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -589,12 +586,12 @@
         <v>2.545094887242191</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -611,7 +608,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -628,7 +625,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -645,7 +642,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -657,12 +654,12 @@
         <v>2.1202101152162398</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -679,7 +676,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -713,7 +710,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -725,12 +722,12 @@
         <v>2.139338487175122</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -776,12 +773,12 @@
         <v>2.1040316479791752</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -798,7 +795,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -815,7 +812,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -827,12 +824,12 @@
         <v>1.877139957061577</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -849,7 +846,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -883,7 +880,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -895,12 +892,12 @@
         <v>2.694677319851464</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -917,7 +914,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -934,7 +931,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>15</v>
@@ -951,7 +948,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -963,12 +960,12 @@
         <v>2.1721079114090531</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>18</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>18</v>
@@ -1014,12 +1011,12 @@
         <v>2.0020509000794551</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>19</v>
@@ -1053,7 +1050,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>19</v>
@@ -1065,12 +1062,12 @@
         <v>1.638596089610894</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>22</v>
@@ -1116,12 +1113,12 @@
         <v>1.87902913819351</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -1138,7 +1135,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>23</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>23</v>
@@ -1184,12 +1181,12 @@
         <v>2.3670443386449711</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>26</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>26</v>
@@ -1235,12 +1232,12 @@
         <v>2.4141173755955649</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -1274,7 +1271,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -1286,12 +1283,12 @@
         <v>2.1747541423507322</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>32</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -1337,12 +1334,12 @@
         <v>2.1936751674546731</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>33</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>33</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>33</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>33</v>
@@ -1405,12 +1402,12 @@
         <v>2.3356980388093822</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>34</v>
@@ -1427,7 +1424,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>34</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>34</v>
@@ -1456,12 +1453,12 @@
         <v>2.1389988231284018</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>36</v>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>36</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>36</v>
@@ -1507,12 +1504,12 @@
         <v>2.0124317306393089</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>40</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>40</v>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>40</v>
@@ -1558,12 +1555,12 @@
         <v>1.939613927354219</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>42</v>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>42</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>42</v>
@@ -1609,12 +1606,12 @@
         <v>1.992890410489996</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1631,7 +1628,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1648,7 +1645,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1677,12 +1674,12 @@
         <v>1.719978007574207</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -1716,7 +1713,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -1728,12 +1725,12 @@
         <v>1.4309785029430331</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -1779,12 +1776,12 @@
         <v>2.3692247122871062</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -1801,7 +1798,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -1830,12 +1827,12 @@
         <v>1.769936881660747</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82">
         <v>11</v>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83">
         <v>11</v>
@@ -1869,7 +1866,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1881,12 +1878,12 @@
         <v>1.893943802211222</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -1903,7 +1900,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -1920,7 +1917,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87">
         <v>12</v>
@@ -1932,12 +1929,12 @@
         <v>1.8176099154555041</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>13</v>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>13</v>
@@ -1971,7 +1968,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <v>13</v>
@@ -1988,7 +1985,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>13</v>
@@ -2000,12 +1997,12 @@
         <v>1.5374806693877441</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92">
         <v>16</v>
@@ -2022,7 +2019,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <v>16</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94">
         <v>16</v>
@@ -2051,21 +2048,21 @@
         <v>1.545652273417303</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>12869599</v>
+        <v>14890482</v>
       </c>
       <c r="D95">
-        <v>0.95937905740717011</v>
+        <v>1.0682833740491089</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -2073,16 +2070,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>15260573</v>
+        <v>12986919</v>
       </c>
       <c r="D96">
-        <v>1.137616963841166</v>
+        <v>0.93171662595089122</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -2090,50 +2087,50 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C97">
-        <v>12113355</v>
+        <v>27627980</v>
       </c>
       <c r="D97">
-        <v>0.90300397875166361</v>
+        <v>1.982105864172919</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C98">
-        <v>23263000</v>
+        <v>10162574</v>
       </c>
       <c r="D98">
-        <v>1.7341670872933179</v>
+        <v>0.9524760181640658</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>14890482</v>
+        <v>10439095</v>
       </c>
       <c r="D99">
-        <v>1.0682833740491089</v>
+        <v>0.97839264332406417</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -2141,16 +2138,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>12986919</v>
+        <v>11407244</v>
       </c>
       <c r="D100">
-        <v>0.93171662595089122</v>
+        <v>1.0691313385118699</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2158,33 +2155,33 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>27627980</v>
+        <v>21485178</v>
       </c>
       <c r="D101">
-        <v>1.982105864172919</v>
+        <v>2.0136745662059821</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C102">
-        <v>10162574</v>
+        <v>14581176</v>
       </c>
       <c r="D102">
-        <v>0.9524760181640658</v>
+        <v>0.94292787891609675</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -2192,16 +2189,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C103">
-        <v>10439095</v>
+        <v>16346271</v>
       </c>
       <c r="D103">
-        <v>0.97839264332406417</v>
+        <v>1.0570721210839029</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -2209,50 +2206,50 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C104">
-        <v>11407244</v>
+        <v>28057585</v>
       </c>
       <c r="D104">
-        <v>1.0691313385118699</v>
+        <v>1.8144132621098661</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C105">
-        <v>21485178</v>
+        <v>19216629</v>
       </c>
       <c r="D105">
-        <v>2.0136745662059821</v>
+        <v>0.95726766215226489</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C106">
-        <v>14581176</v>
+        <v>20932286</v>
       </c>
       <c r="D106">
-        <v>0.94292787891609675</v>
+        <v>1.0427323378477349</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -2260,87 +2257,19 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C107">
-        <v>16346271</v>
+        <v>36297300</v>
       </c>
       <c r="D107">
-        <v>1.0570721210839029</v>
+        <v>1.8081335448292939</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108">
-        <v>24</v>
-      </c>
-      <c r="C108">
-        <v>28057585</v>
-      </c>
-      <c r="D108">
-        <v>1.8144132621098661</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109">
-        <v>26</v>
-      </c>
-      <c r="C109">
-        <v>19216629</v>
-      </c>
-      <c r="D109">
-        <v>0.95726766215226489</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110">
-        <v>26</v>
-      </c>
-      <c r="C110">
-        <v>20932286</v>
-      </c>
-      <c r="D110">
-        <v>1.0427323378477349</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111">
-        <v>26</v>
-      </c>
-      <c r="C111">
-        <v>36297300</v>
-      </c>
-      <c r="D111">
-        <v>1.8081335448292939</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
